--- a/pred_ohlcv/54/2019-10-22 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 FZZ ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>12.1</v>
       </c>
       <c r="F2" t="n">
-        <v>414326.9583</v>
+        <v>361331.1893545454</v>
       </c>
       <c r="G2" t="n">
-        <v>12.39666666666667</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -440,18 +448,21 @@
         <v>12.1</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F3" t="n">
-        <v>381111.9234454546</v>
+        <v>414326.9583</v>
       </c>
       <c r="G3" t="n">
-        <v>12.38166666666667</v>
+        <v>12.39666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
         <v>12.2</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>513038.5508245901</v>
+        <v>381111.9234454546</v>
       </c>
       <c r="G4" t="n">
-        <v>12.36166666666667</v>
+        <v>12.38166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="n">
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>692174.8077754099</v>
+        <v>513038.5508245901</v>
       </c>
       <c r="G5" t="n">
-        <v>12.33666666666667</v>
+        <v>12.36166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C6" t="n">
         <v>12.3</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.4</v>
-      </c>
       <c r="D6" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1398605.0335</v>
+        <v>692174.8077754099</v>
       </c>
       <c r="G6" t="n">
-        <v>12.31666666666667</v>
+        <v>12.33666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C7" t="n">
         <v>12.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.3</v>
-      </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1815359.7187</v>
+        <v>1398605.0335</v>
       </c>
       <c r="G7" t="n">
-        <v>12.29166666666667</v>
+        <v>12.31666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C8" t="n">
         <v>12.3</v>
       </c>
-      <c r="C8" t="n">
-        <v>12.2</v>
-      </c>
       <c r="D8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>12.3</v>
       </c>
-      <c r="E8" t="n">
-        <v>12.2</v>
-      </c>
       <c r="F8" t="n">
-        <v>1175059.45652459</v>
+        <v>1815359.7187</v>
       </c>
       <c r="G8" t="n">
-        <v>12.26833333333333</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C9" t="n">
         <v>12.2</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.4</v>
-      </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E9" t="n">
         <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3448482.81987541</v>
+        <v>1175059.45652459</v>
       </c>
       <c r="G9" t="n">
-        <v>12.255</v>
+        <v>12.26833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C10" t="n">
         <v>12.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.2</v>
       </c>
       <c r="D10" t="n">
         <v>12.5</v>
@@ -628,12 +657,15 @@
         <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>6009872.6166</v>
+        <v>3448482.81987541</v>
       </c>
       <c r="G10" t="n">
-        <v>12.24166666666667</v>
+        <v>12.255</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E11" t="n">
         <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>163333.8735395161</v>
+        <v>6009872.6166</v>
       </c>
       <c r="G11" t="n">
-        <v>12.22166666666667</v>
+        <v>12.24166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>12.3</v>
       </c>
       <c r="C12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E12" t="n">
         <v>12.2</v>
       </c>
       <c r="F12" t="n">
-        <v>695209.8958000001</v>
+        <v>163333.8735395161</v>
       </c>
       <c r="G12" t="n">
-        <v>12.2</v>
+        <v>12.22166666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C13" t="n">
         <v>12.2</v>
       </c>
-      <c r="C13" t="n">
-        <v>11.5</v>
-      </c>
       <c r="D13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E13" t="n">
         <v>12.2</v>
       </c>
-      <c r="E13" t="n">
-        <v>11.5</v>
-      </c>
       <c r="F13" t="n">
-        <v>3036738.7403</v>
+        <v>695209.8958000001</v>
       </c>
       <c r="G13" t="n">
-        <v>12.165</v>
+        <v>12.2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C14" t="n">
         <v>11.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.8</v>
-      </c>
       <c r="D14" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1112733.0343</v>
+        <v>3036738.7403</v>
       </c>
       <c r="G14" t="n">
-        <v>12.14</v>
+        <v>12.165</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C15" t="n">
         <v>11.8</v>
@@ -755,15 +799,18 @@
         <v>11.9</v>
       </c>
       <c r="E15" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="F15" t="n">
-        <v>631302.575</v>
+        <v>1112733.0343</v>
       </c>
       <c r="G15" t="n">
-        <v>12.11166666666667</v>
+        <v>12.14</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>11.8</v>
       </c>
       <c r="C16" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D16" t="n">
         <v>11.9</v>
       </c>
       <c r="E16" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1047779.283515254</v>
+        <v>631302.575</v>
       </c>
       <c r="G16" t="n">
-        <v>12.085</v>
+        <v>12.11166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="C17" t="n">
         <v>11.6</v>
       </c>
       <c r="D17" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1285694.0624</v>
+        <v>1047779.283515254</v>
       </c>
       <c r="G17" t="n">
-        <v>12.06333333333333</v>
+        <v>12.085</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C18" t="n">
         <v>11.6</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E18" t="n">
         <v>11.5</v>
       </c>
-      <c r="D18" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11.3</v>
-      </c>
       <c r="F18" t="n">
-        <v>2860392.1584</v>
+        <v>1285694.0624</v>
       </c>
       <c r="G18" t="n">
-        <v>12.03666666666667</v>
+        <v>12.06333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C19" t="n">
         <v>11.5</v>
       </c>
-      <c r="C19" t="n">
-        <v>11.7</v>
-      </c>
       <c r="D19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E19" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1527598.6664</v>
+        <v>2860392.1584</v>
       </c>
       <c r="G19" t="n">
-        <v>12.02333333333333</v>
+        <v>12.03666666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C20" t="n">
         <v>11.7</v>
@@ -885,15 +944,18 @@
         <v>11.7</v>
       </c>
       <c r="E20" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F20" t="n">
-        <v>790084.0399</v>
+        <v>1527598.6664</v>
       </c>
       <c r="G20" t="n">
-        <v>12.01333333333333</v>
+        <v>12.02333333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C21" t="n">
         <v>11.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11.5</v>
       </c>
       <c r="D21" t="n">
         <v>11.7</v>
@@ -914,12 +976,15 @@
         <v>11.5</v>
       </c>
       <c r="F21" t="n">
-        <v>147752.8418</v>
+        <v>790084.0399</v>
       </c>
       <c r="G21" t="n">
-        <v>12.005</v>
+        <v>12.01333333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C22" t="n">
         <v>11.5</v>
       </c>
       <c r="D22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E22" t="n">
         <v>11.5</v>
       </c>
       <c r="F22" t="n">
-        <v>19460.887</v>
+        <v>147752.8418</v>
       </c>
       <c r="G22" t="n">
-        <v>11.99833333333333</v>
+        <v>12.005</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>11.5</v>
       </c>
       <c r="F23" t="n">
-        <v>301552.7994</v>
+        <v>19460.887</v>
       </c>
       <c r="G23" t="n">
-        <v>11.995</v>
+        <v>11.99833333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C24" t="n">
         <v>11.5</v>
       </c>
-      <c r="C24" t="n">
-        <v>11.2</v>
-      </c>
       <c r="D24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E24" t="n">
         <v>11.5</v>
       </c>
-      <c r="E24" t="n">
-        <v>11.2</v>
-      </c>
       <c r="F24" t="n">
-        <v>1084874.331</v>
+        <v>301552.7994</v>
       </c>
       <c r="G24" t="n">
-        <v>11.98333333333334</v>
+        <v>11.995</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C25" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E25" t="n">
         <v>11.2</v>
       </c>
       <c r="F25" t="n">
-        <v>571691.140326087</v>
+        <v>1084874.331</v>
       </c>
       <c r="G25" t="n">
-        <v>11.97333333333333</v>
+        <v>11.98333333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>11.3</v>
       </c>
       <c r="C26" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E26" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1135841.9279</v>
+        <v>571691.140326087</v>
       </c>
       <c r="G26" t="n">
-        <v>11.96833333333334</v>
+        <v>11.97333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C27" t="n">
         <v>11.5</v>
@@ -1067,15 +1147,18 @@
         <v>11.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="F27" t="n">
-        <v>1532387.8386</v>
+        <v>1135841.9279</v>
       </c>
       <c r="G27" t="n">
-        <v>11.96333333333334</v>
+        <v>11.96833333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>11.4</v>
       </c>
       <c r="F28" t="n">
-        <v>220156.9542739131</v>
+        <v>1532387.8386</v>
       </c>
       <c r="G28" t="n">
-        <v>11.955</v>
+        <v>11.96333333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C29" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D29" t="n">
         <v>11.5</v>
       </c>
       <c r="E29" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F29" t="n">
-        <v>749520.0048</v>
+        <v>220156.9542739131</v>
       </c>
       <c r="G29" t="n">
-        <v>11.94333333333334</v>
+        <v>11.955</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C30" t="n">
         <v>11.2</v>
       </c>
-      <c r="C30" t="n">
-        <v>11.3</v>
-      </c>
       <c r="D30" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E30" t="n">
         <v>11.2</v>
       </c>
       <c r="F30" t="n">
-        <v>126096.7309</v>
+        <v>749520.0048</v>
       </c>
       <c r="G30" t="n">
-        <v>11.93333333333334</v>
+        <v>11.94333333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C31" t="n">
         <v>11.3</v>
@@ -1174,12 +1266,15 @@
         <v>11.2</v>
       </c>
       <c r="F31" t="n">
-        <v>341339.0067</v>
+        <v>126096.7309</v>
       </c>
       <c r="G31" t="n">
-        <v>11.92333333333334</v>
+        <v>11.93333333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>11.3</v>
       </c>
       <c r="C32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E32" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F32" t="n">
-        <v>428364.2398</v>
+        <v>341339.0067</v>
       </c>
       <c r="G32" t="n">
-        <v>11.91</v>
+        <v>11.92333333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C33" t="n">
         <v>11.4</v>
       </c>
-      <c r="C33" t="n">
-        <v>11.3</v>
-      </c>
       <c r="D33" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E33" t="n">
         <v>11.3</v>
       </c>
       <c r="F33" t="n">
-        <v>1113954.7691</v>
+        <v>428364.2398</v>
       </c>
       <c r="G33" t="n">
-        <v>11.89666666666667</v>
+        <v>11.91</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="C34" t="n">
         <v>11.3</v>
@@ -1249,15 +1350,18 @@
         <v>11.5</v>
       </c>
       <c r="E34" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1220463.290485965</v>
+        <v>1113954.7691</v>
       </c>
       <c r="G34" t="n">
-        <v>11.885</v>
+        <v>11.89666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,18 +1376,21 @@
         <v>11.3</v>
       </c>
       <c r="D35" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E35" t="n">
         <v>11.2</v>
       </c>
       <c r="F35" t="n">
-        <v>352890.2223</v>
+        <v>1220463.290485965</v>
       </c>
       <c r="G35" t="n">
-        <v>11.875</v>
+        <v>11.885</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>11.3</v>
       </c>
       <c r="C36" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E36" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F36" t="n">
-        <v>566168.7173</v>
+        <v>352890.2223</v>
       </c>
       <c r="G36" t="n">
-        <v>11.86666666666667</v>
+        <v>11.875</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C37" t="n">
         <v>11.1</v>
       </c>
-      <c r="C37" t="n">
-        <v>10.5</v>
-      </c>
       <c r="D37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E37" t="n">
         <v>11.1</v>
       </c>
-      <c r="E37" t="n">
-        <v>10.5</v>
-      </c>
       <c r="F37" t="n">
-        <v>2972070.149327273</v>
+        <v>566168.7173</v>
       </c>
       <c r="G37" t="n">
-        <v>11.84666666666667</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C38" t="n">
         <v>10.5</v>
       </c>
-      <c r="C38" t="n">
-        <v>10.7</v>
-      </c>
       <c r="D38" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="E38" t="n">
         <v>10.5</v>
       </c>
       <c r="F38" t="n">
-        <v>2680295.0504</v>
+        <v>2972070.149327273</v>
       </c>
       <c r="G38" t="n">
-        <v>11.825</v>
+        <v>11.84666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C39" t="n">
         <v>10.7</v>
       </c>
-      <c r="C39" t="n">
-        <v>10.8</v>
-      </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E39" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="F39" t="n">
-        <v>2489323.57673945</v>
+        <v>2680295.0504</v>
       </c>
       <c r="G39" t="n">
-        <v>11.805</v>
+        <v>11.825</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C40" t="n">
         <v>10.8</v>
       </c>
-      <c r="C40" t="n">
-        <v>10.9</v>
-      </c>
       <c r="D40" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>10.7</v>
       </c>
       <c r="F40" t="n">
-        <v>342160.7203</v>
+        <v>2489323.57673945</v>
       </c>
       <c r="G40" t="n">
-        <v>11.78833333333333</v>
+        <v>11.805</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C41" t="n">
         <v>10.9</v>
       </c>
-      <c r="C41" t="n">
-        <v>10.8</v>
-      </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E41" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1339177.179960551</v>
+        <v>342160.7203</v>
       </c>
       <c r="G41" t="n">
-        <v>11.77333333333333</v>
+        <v>11.78833333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>10.9</v>
       </c>
       <c r="C42" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D42" t="n">
         <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F42" t="n">
-        <v>501705.3977818182</v>
+        <v>1339177.179960551</v>
       </c>
       <c r="G42" t="n">
-        <v>11.75833333333333</v>
+        <v>11.77333333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>10.9</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D43" t="n">
         <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F43" t="n">
-        <v>1121074.379718182</v>
+        <v>501705.3977818182</v>
       </c>
       <c r="G43" t="n">
-        <v>11.74333333333333</v>
+        <v>11.75833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,10 +1631,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C44" t="n">
         <v>11</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10.9</v>
       </c>
       <c r="D44" t="n">
         <v>11</v>
@@ -1512,12 +1643,15 @@
         <v>10.8</v>
       </c>
       <c r="F44" t="n">
-        <v>722609.2377818181</v>
+        <v>1121074.379718182</v>
       </c>
       <c r="G44" t="n">
-        <v>11.725</v>
+        <v>11.74333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
         <v>10.9</v>
@@ -1535,15 +1669,18 @@
         <v>11</v>
       </c>
       <c r="E45" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F45" t="n">
-        <v>137798.9438</v>
+        <v>722609.2377818181</v>
       </c>
       <c r="G45" t="n">
-        <v>11.70333333333333</v>
+        <v>11.725</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C46" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="n">
         <v>10.9</v>
       </c>
-      <c r="E46" t="n">
-        <v>10.6</v>
-      </c>
       <c r="F46" t="n">
-        <v>1754030.1733</v>
+        <v>137798.9438</v>
       </c>
       <c r="G46" t="n">
-        <v>11.67666666666666</v>
+        <v>11.70333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C47" t="n">
         <v>10.6</v>
       </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
       <c r="D47" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E47" t="n">
         <v>10.6</v>
       </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
       <c r="F47" t="n">
-        <v>8613065.7612</v>
+        <v>1754030.1733</v>
       </c>
       <c r="G47" t="n">
-        <v>11.64166666666666</v>
+        <v>11.67666666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C48" t="n">
         <v>10</v>
       </c>
-      <c r="C48" t="n">
-        <v>10.2</v>
-      </c>
       <c r="D48" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="E48" t="n">
-        <v>9.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>5700266.4594</v>
+        <v>8613065.7612</v>
       </c>
       <c r="G48" t="n">
-        <v>11.61333333333333</v>
+        <v>11.64166666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="D49" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>8402080.042165048</v>
+        <v>5700266.4594</v>
       </c>
       <c r="G49" t="n">
-        <v>11.58</v>
+        <v>11.61333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C50" t="n">
         <v>10</v>
       </c>
-      <c r="C50" t="n">
-        <v>9.94</v>
-      </c>
       <c r="D50" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" t="n">
-        <v>9.82</v>
-      </c>
       <c r="F50" t="n">
-        <v>4133550.5417</v>
+        <v>8402080.042165048</v>
       </c>
       <c r="G50" t="n">
-        <v>11.544</v>
+        <v>11.58</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
         <v>9.94</v>
       </c>
-      <c r="C51" t="n">
-        <v>9.949999999999999</v>
-      </c>
       <c r="D51" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9.85</v>
+        <v>9.82</v>
       </c>
       <c r="F51" t="n">
-        <v>2459229.2119</v>
+        <v>4133550.5417</v>
       </c>
       <c r="G51" t="n">
-        <v>11.50983333333333</v>
+        <v>11.544</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="C52" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="C52" t="n">
-        <v>10.1</v>
-      </c>
       <c r="D52" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="E52" t="n">
-        <v>9.949999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="F52" t="n">
-        <v>5228347.2596</v>
+        <v>2459229.2119</v>
       </c>
       <c r="G52" t="n">
-        <v>11.47483333333333</v>
+        <v>11.50983333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C53" t="n">
         <v>10.1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9.92</v>
       </c>
       <c r="D53" t="n">
         <v>10.1</v>
       </c>
       <c r="E53" t="n">
-        <v>9.859999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>2063785.2134</v>
+        <v>5228347.2596</v>
       </c>
       <c r="G53" t="n">
-        <v>11.43516666666667</v>
+        <v>11.47483333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.949999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C54" t="n">
-        <v>9.81</v>
+        <v>9.92</v>
       </c>
       <c r="D54" t="n">
-        <v>9.949999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E54" t="n">
-        <v>9.81</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>4016114.0676</v>
+        <v>2063785.2134</v>
       </c>
       <c r="G54" t="n">
-        <v>11.392</v>
+        <v>11.43516666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>9.91</v>
+        <v>9.81</v>
       </c>
       <c r="D55" t="n">
-        <v>9.91</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>9.789999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="F55" t="n">
-        <v>1516284.5484</v>
+        <v>4016114.0676</v>
       </c>
       <c r="G55" t="n">
-        <v>11.34883333333333</v>
+        <v>11.392</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.99</v>
+        <v>9.9</v>
       </c>
       <c r="C56" t="n">
-        <v>9.960000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="D56" t="n">
-        <v>10.1</v>
+        <v>9.91</v>
       </c>
       <c r="E56" t="n">
-        <v>9.9</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4446805.1021</v>
+        <v>1516284.5484</v>
       </c>
       <c r="G56" t="n">
-        <v>11.3065</v>
+        <v>11.34883333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.94</v>
+        <v>9.99</v>
       </c>
       <c r="C57" t="n">
         <v>9.960000000000001</v>
@@ -1847,15 +2017,18 @@
         <v>10.1</v>
       </c>
       <c r="E57" t="n">
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2208706.0524</v>
+        <v>4446805.1021</v>
       </c>
       <c r="G57" t="n">
-        <v>11.26416666666666</v>
+        <v>11.3065</v>
       </c>
       <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="C58" t="n">
-        <v>9.800000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>9.98</v>
+        <v>10.1</v>
       </c>
       <c r="E58" t="n">
-        <v>9.77</v>
+        <v>9.94</v>
       </c>
       <c r="F58" t="n">
-        <v>2265073.469663968</v>
+        <v>2208706.0524</v>
       </c>
       <c r="G58" t="n">
-        <v>11.22583333333333</v>
+        <v>11.26416666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.779999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>9.779999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="E59" t="n">
-        <v>9.609999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F59" t="n">
-        <v>2103354.486820778</v>
+        <v>2265073.469663968</v>
       </c>
       <c r="G59" t="n">
-        <v>11.18716666666666</v>
+        <v>11.22583333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.74</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D60" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>9.640000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>1785391.0187</v>
+        <v>2103354.486820778</v>
       </c>
       <c r="G60" t="n">
-        <v>11.1465</v>
+        <v>11.18716666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C61" t="n">
         <v>9.76</v>
       </c>
-      <c r="C61" t="n">
-        <v>9.85</v>
-      </c>
       <c r="D61" t="n">
-        <v>9.869999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>9.76</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>2828784.2478</v>
+        <v>1785391.0187</v>
       </c>
       <c r="G61" t="n">
-        <v>11.109</v>
+        <v>11.1465</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D62" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="C62" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9.99</v>
-      </c>
       <c r="E62" t="n">
-        <v>9.800000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="F62" t="n">
-        <v>1360821.6287</v>
+        <v>2828784.2478</v>
       </c>
       <c r="G62" t="n">
-        <v>11.07233333333333</v>
+        <v>11.109</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.82</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="D63" t="n">
-        <v>10.1</v>
+        <v>9.99</v>
       </c>
       <c r="E63" t="n">
-        <v>9.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>5085176.9231</v>
+        <v>1360821.6287</v>
       </c>
       <c r="G63" t="n">
-        <v>11.03633333333333</v>
+        <v>11.07233333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.98</v>
+        <v>9.82</v>
       </c>
       <c r="C64" t="n">
-        <v>10.2</v>
+        <v>9.94</v>
       </c>
       <c r="D64" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="E64" t="n">
-        <v>9.98</v>
+        <v>9.82</v>
       </c>
       <c r="F64" t="n">
-        <v>2257843.3283</v>
+        <v>5085176.9231</v>
       </c>
       <c r="G64" t="n">
-        <v>11.00299999999999</v>
+        <v>11.03633333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C65" t="n">
         <v>10.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9.880000000000001</v>
       </c>
       <c r="D65" t="n">
         <v>10.2</v>
       </c>
       <c r="E65" t="n">
-        <v>9.869999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="F65" t="n">
-        <v>4455805.533564356</v>
+        <v>2257843.3283</v>
       </c>
       <c r="G65" t="n">
-        <v>10.96266666666666</v>
+        <v>11.00299999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.92</v>
+        <v>10.2</v>
       </c>
       <c r="C66" t="n">
-        <v>9.960000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>9.960000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="E66" t="n">
-        <v>9.85</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>405345.5291</v>
+        <v>4455805.533564356</v>
       </c>
       <c r="G66" t="n">
-        <v>10.922</v>
+        <v>10.96266666666666</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.949999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="C67" t="n">
-        <v>9.9</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>9.949999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>9.859999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="F67" t="n">
-        <v>1815000.3718</v>
+        <v>405345.5291</v>
       </c>
       <c r="G67" t="n">
-        <v>10.882</v>
+        <v>10.922</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.890000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>9.92</v>
+        <v>9.9</v>
       </c>
       <c r="D68" t="n">
         <v>9.949999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>9.880000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>902713.1435</v>
+        <v>1815000.3718</v>
       </c>
       <c r="G68" t="n">
-        <v>10.844</v>
+        <v>10.882</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.93</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>10.2</v>
+        <v>9.92</v>
       </c>
       <c r="D69" t="n">
-        <v>10.2</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>9.93</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1724698.8504</v>
+        <v>902713.1435</v>
       </c>
       <c r="G69" t="n">
-        <v>10.80733333333333</v>
+        <v>10.844</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.1</v>
+        <v>9.93</v>
       </c>
       <c r="C70" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="D70" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9.93</v>
       </c>
       <c r="F70" t="n">
-        <v>2169496.5292</v>
+        <v>1724698.8504</v>
       </c>
       <c r="G70" t="n">
-        <v>10.77233333333333</v>
+        <v>10.80733333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E71" t="n">
         <v>10</v>
       </c>
-      <c r="C71" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9.91</v>
-      </c>
       <c r="F71" t="n">
-        <v>1097853.6251</v>
+        <v>2169496.5292</v>
       </c>
       <c r="G71" t="n">
-        <v>10.7325</v>
+        <v>10.77233333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.92</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>9.949999999999999</v>
+        <v>9.91</v>
       </c>
       <c r="D72" t="n">
         <v>10.1</v>
       </c>
       <c r="E72" t="n">
-        <v>9.92</v>
+        <v>9.91</v>
       </c>
       <c r="F72" t="n">
-        <v>1228316.6457</v>
+        <v>1097853.6251</v>
       </c>
       <c r="G72" t="n">
-        <v>10.695</v>
+        <v>10.7325</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.1</v>
+        <v>9.92</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D73" t="n">
         <v>10.1</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9.92</v>
       </c>
       <c r="F73" t="n">
-        <v>915894.1813000001</v>
+        <v>1228316.6457</v>
       </c>
       <c r="G73" t="n">
-        <v>10.67</v>
+        <v>10.695</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C74" t="n">
         <v>10</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>10.1</v>
       </c>
-      <c r="D74" t="n">
-        <v>10.3</v>
-      </c>
       <c r="E74" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>1534686.8781</v>
+        <v>915894.1813000001</v>
       </c>
       <c r="G74" t="n">
-        <v>10.64166666666666</v>
+        <v>10.67</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="C75" t="n">
         <v>10.1</v>
       </c>
       <c r="D75" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="E75" t="n">
-        <v>10.1</v>
+        <v>9.99</v>
       </c>
       <c r="F75" t="n">
-        <v>512770.6067</v>
+        <v>1534686.8781</v>
       </c>
       <c r="G75" t="n">
-        <v>10.61333333333333</v>
+        <v>10.64166666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="C76" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="D76" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="E76" t="n">
         <v>10.1</v>
       </c>
       <c r="F76" t="n">
-        <v>130855.5394313726</v>
+        <v>512770.6067</v>
       </c>
       <c r="G76" t="n">
-        <v>10.59</v>
+        <v>10.61333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>10.2</v>
       </c>
       <c r="C77" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="D77" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="E77" t="n">
         <v>10.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1035707.684630166</v>
+        <v>130855.5394313726</v>
       </c>
       <c r="G77" t="n">
-        <v>10.56833333333333</v>
+        <v>10.59</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C78" t="n">
         <v>10.3</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E78" t="n">
         <v>10.1</v>
       </c>
-      <c r="D78" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10</v>
-      </c>
       <c r="F78" t="n">
-        <v>2752415.7345</v>
+        <v>1035707.684630166</v>
       </c>
       <c r="G78" t="n">
-        <v>10.545</v>
+        <v>10.56833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C79" t="n">
         <v>10.1</v>
       </c>
-      <c r="C79" t="n">
-        <v>9.960000000000001</v>
-      </c>
       <c r="D79" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="E79" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>1413031.6586</v>
+        <v>2752415.7345</v>
       </c>
       <c r="G79" t="n">
-        <v>10.516</v>
+        <v>10.545</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.93</v>
+        <v>10.1</v>
       </c>
       <c r="C80" t="n">
-        <v>9.93</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>9.949999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E80" t="n">
-        <v>9.82</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>1170482.9236</v>
+        <v>1413031.6586</v>
       </c>
       <c r="G80" t="n">
-        <v>10.4865</v>
+        <v>10.516</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>9.93</v>
       </c>
       <c r="C81" t="n">
-        <v>9.92</v>
+        <v>9.93</v>
       </c>
       <c r="D81" t="n">
-        <v>9.93</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>9.859999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="F81" t="n">
-        <v>335972.8460529708</v>
+        <v>1170482.9236</v>
       </c>
       <c r="G81" t="n">
-        <v>10.46016666666666</v>
+        <v>10.4865</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.859999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="C82" t="n">
-        <v>9.779999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="D82" t="n">
         <v>9.93</v>
       </c>
       <c r="E82" t="n">
-        <v>9.6</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>2324715.0985</v>
+        <v>335972.8460529708</v>
       </c>
       <c r="G82" t="n">
-        <v>10.4315</v>
+        <v>10.46016666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.85</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>9.83</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>9.85</v>
+        <v>9.93</v>
       </c>
       <c r="E83" t="n">
-        <v>9.67</v>
+        <v>9.6</v>
       </c>
       <c r="F83" t="n">
-        <v>279659.8361</v>
+        <v>2324715.0985</v>
       </c>
       <c r="G83" t="n">
-        <v>10.40366666666666</v>
+        <v>10.4315</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.81</v>
+        <v>9.85</v>
       </c>
       <c r="C84" t="n">
-        <v>9.9</v>
+        <v>9.83</v>
       </c>
       <c r="D84" t="n">
-        <v>9.9</v>
+        <v>9.85</v>
       </c>
       <c r="E84" t="n">
-        <v>9.800000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="F84" t="n">
-        <v>150935.8067</v>
+        <v>279659.8361</v>
       </c>
       <c r="G84" t="n">
-        <v>10.382</v>
+        <v>10.40366666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.800000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C85" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D85" t="n">
-        <v>9.869999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="E85" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>212156.3323677811</v>
+        <v>150935.8067</v>
       </c>
       <c r="G85" t="n">
-        <v>10.357</v>
+        <v>10.382</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.859999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>9.880000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>9.949999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E86" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>404305.1614</v>
+        <v>212156.3323677811</v>
       </c>
       <c r="G86" t="n">
-        <v>10.32999999999999</v>
+        <v>10.357</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E87" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C87" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.67</v>
-      </c>
       <c r="F87" t="n">
-        <v>758739.8808</v>
+        <v>404305.1614</v>
       </c>
       <c r="G87" t="n">
-        <v>10.3015</v>
+        <v>10.32999999999999</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.710000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>9.869999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>9.869999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>9.710000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="F88" t="n">
-        <v>168976.4122</v>
+        <v>758739.8808</v>
       </c>
       <c r="G88" t="n">
-        <v>10.27433333333333</v>
+        <v>10.3015</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>9.75</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>9.81</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>9.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>371869.3897</v>
+        <v>168976.4122</v>
       </c>
       <c r="G89" t="n">
-        <v>10.25016666666666</v>
+        <v>10.27433333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>9.75</v>
       </c>
       <c r="C90" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="D90" t="n">
-        <v>9.85</v>
+        <v>9.81</v>
       </c>
       <c r="E90" t="n">
         <v>9.75</v>
       </c>
       <c r="F90" t="n">
-        <v>82829.70318130081</v>
+        <v>371869.3897</v>
       </c>
       <c r="G90" t="n">
-        <v>10.22466666666666</v>
+        <v>10.25016666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.83</v>
+        <v>9.75</v>
       </c>
       <c r="C91" t="n">
-        <v>9.83</v>
+        <v>9.77</v>
       </c>
       <c r="D91" t="n">
-        <v>9.880000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="E91" t="n">
         <v>9.75</v>
       </c>
       <c r="F91" t="n">
-        <v>1225284.0495</v>
+        <v>82829.70318130081</v>
       </c>
       <c r="G91" t="n">
-        <v>10.20016666666666</v>
+        <v>10.22466666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>9.83</v>
       </c>
       <c r="C92" t="n">
-        <v>9.890000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="D92" t="n">
-        <v>9.949999999999999</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>9.800000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="F92" t="n">
-        <v>2729353.367933166</v>
+        <v>1225284.0495</v>
       </c>
       <c r="G92" t="n">
-        <v>10.175</v>
+        <v>10.20016666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.869999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="C93" t="n">
-        <v>9.84</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>9.869999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>15248201.4463</v>
+        <v>2729353.367933166</v>
       </c>
       <c r="G93" t="n">
-        <v>10.15066666666666</v>
+        <v>10.175</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.84</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C94" t="n">
         <v>9.84</v>
       </c>
       <c r="D94" t="n">
-        <v>9.890000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>9.789999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>56177306.6863</v>
+        <v>15248201.4463</v>
       </c>
       <c r="G94" t="n">
-        <v>10.12633333333333</v>
+        <v>10.15066666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>9.84</v>
       </c>
       <c r="C95" t="n">
-        <v>9.779999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D95" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>94032356.28955285</v>
+        <v>56177306.6863</v>
       </c>
       <c r="G95" t="n">
-        <v>10.101</v>
+        <v>10.12633333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E96" t="n">
         <v>9.77</v>
       </c>
-      <c r="C96" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="D96" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.75</v>
-      </c>
       <c r="F96" t="n">
-        <v>82598427.7369</v>
+        <v>94032356.28955285</v>
       </c>
       <c r="G96" t="n">
-        <v>10.07866666666667</v>
+        <v>10.101</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E97" t="n">
         <v>9.75</v>
       </c>
-      <c r="C97" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D97" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.699999999999999</v>
-      </c>
       <c r="F97" t="n">
-        <v>84878950.473</v>
+        <v>82598427.7369</v>
       </c>
       <c r="G97" t="n">
-        <v>10.0655</v>
+        <v>10.07866666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C98" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E98" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="D98" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.67</v>
-      </c>
       <c r="F98" t="n">
-        <v>120564999.3868</v>
+        <v>84878950.473</v>
       </c>
       <c r="G98" t="n">
-        <v>10.04883333333333</v>
+        <v>10.0655</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C99" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="C99" t="n">
-        <v>9.68</v>
-      </c>
       <c r="D99" t="n">
-        <v>9.699999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>9.67</v>
       </c>
       <c r="F99" t="n">
-        <v>55048673.39735773</v>
+        <v>120564999.3868</v>
       </c>
       <c r="G99" t="n">
-        <v>10.03016666666667</v>
+        <v>10.04883333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.67</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>9.210000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="D100" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>9.18</v>
+        <v>9.67</v>
       </c>
       <c r="F100" t="n">
-        <v>2398499.7259</v>
+        <v>55048673.39735773</v>
       </c>
       <c r="G100" t="n">
-        <v>10.002</v>
+        <v>10.03016666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C101" t="n">
         <v>9.210000000000001</v>
       </c>
-      <c r="C101" t="n">
-        <v>9.35</v>
-      </c>
       <c r="D101" t="n">
-        <v>9.449999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>9.109999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="F101" t="n">
-        <v>3143565.38</v>
+        <v>2398499.7259</v>
       </c>
       <c r="G101" t="n">
-        <v>9.977833333333335</v>
+        <v>10.002</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C102" t="n">
         <v>9.35</v>
       </c>
-      <c r="C102" t="n">
-        <v>9.279999999999999</v>
-      </c>
       <c r="D102" t="n">
-        <v>9.35</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>9.27</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>3338810.645</v>
+        <v>3143565.38</v>
       </c>
       <c r="G102" t="n">
-        <v>9.950833333333334</v>
+        <v>9.977833333333335</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C103" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="C103" t="n">
-        <v>9.470000000000001</v>
-      </c>
       <c r="D103" t="n">
-        <v>9.48</v>
+        <v>9.35</v>
       </c>
       <c r="E103" t="n">
-        <v>9.279999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="F103" t="n">
-        <v>2265182.9607</v>
+        <v>3338810.645</v>
       </c>
       <c r="G103" t="n">
-        <v>9.925333333333334</v>
+        <v>9.950833333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.4</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>9.25</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="E104" t="n">
-        <v>9.16</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>940091.0578</v>
+        <v>2265182.9607</v>
       </c>
       <c r="G104" t="n">
-        <v>9.897833333333335</v>
+        <v>9.925333333333334</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C105" t="n">
         <v>9.25</v>
       </c>
-      <c r="C105" t="n">
-        <v>9.31</v>
-      </c>
       <c r="D105" t="n">
-        <v>9.31</v>
+        <v>9.4</v>
       </c>
       <c r="E105" t="n">
-        <v>9.23</v>
+        <v>9.16</v>
       </c>
       <c r="F105" t="n">
-        <v>999970.6159</v>
+        <v>940091.0578</v>
       </c>
       <c r="G105" t="n">
-        <v>9.871333333333334</v>
+        <v>9.897833333333335</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.279999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="C106" t="n">
-        <v>9.23</v>
+        <v>9.31</v>
       </c>
       <c r="D106" t="n">
-        <v>9.300000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="E106" t="n">
         <v>9.23</v>
       </c>
       <c r="F106" t="n">
-        <v>1669706.991561464</v>
+        <v>999970.6159</v>
       </c>
       <c r="G106" t="n">
-        <v>9.848500000000001</v>
+        <v>9.871333333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.25</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C107" t="n">
         <v>9.23</v>
       </c>
       <c r="D107" t="n">
-        <v>9.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>9.15</v>
+        <v>9.23</v>
       </c>
       <c r="F107" t="n">
-        <v>2883308.0678</v>
+        <v>1669706.991561464</v>
       </c>
       <c r="G107" t="n">
-        <v>9.835666666666668</v>
+        <v>9.848500000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.18</v>
+        <v>9.25</v>
       </c>
       <c r="C108" t="n">
-        <v>8.99</v>
+        <v>9.23</v>
       </c>
       <c r="D108" t="n">
-        <v>9.220000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="E108" t="n">
-        <v>8.99</v>
+        <v>9.15</v>
       </c>
       <c r="F108" t="n">
-        <v>4524792.359766667</v>
+        <v>2883308.0678</v>
       </c>
       <c r="G108" t="n">
-        <v>9.815500000000002</v>
+        <v>9.835666666666668</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.98</v>
+        <v>9.18</v>
       </c>
       <c r="C109" t="n">
-        <v>8.98</v>
+        <v>8.99</v>
       </c>
       <c r="D109" t="n">
-        <v>9.050000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>8.83</v>
+        <v>8.99</v>
       </c>
       <c r="F109" t="n">
-        <v>1624426.4203</v>
+        <v>4524792.359766667</v>
       </c>
       <c r="G109" t="n">
-        <v>9.798500000000001</v>
+        <v>9.815500000000002</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>8.98</v>
       </c>
       <c r="C110" t="n">
-        <v>8.92</v>
+        <v>8.98</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>8.75</v>
+        <v>8.83</v>
       </c>
       <c r="F110" t="n">
-        <v>4426088.9271</v>
+        <v>1624426.4203</v>
       </c>
       <c r="G110" t="n">
-        <v>9.781499999999999</v>
+        <v>9.798500000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="n">
         <v>8.92</v>
       </c>
-      <c r="C111" t="n">
-        <v>8.68</v>
-      </c>
       <c r="D111" t="n">
-        <v>8.93</v>
+        <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>8.68</v>
+        <v>8.75</v>
       </c>
       <c r="F111" t="n">
-        <v>1570728.8306</v>
+        <v>4426088.9271</v>
       </c>
       <c r="G111" t="n">
-        <v>9.760333333333332</v>
+        <v>9.781499999999999</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.69</v>
+        <v>8.92</v>
       </c>
       <c r="C112" t="n">
-        <v>8.800000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="D112" t="n">
-        <v>8.880000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="E112" t="n">
-        <v>8.69</v>
+        <v>8.68</v>
       </c>
       <c r="F112" t="n">
-        <v>2352194.6862</v>
+        <v>1570728.8306</v>
       </c>
       <c r="G112" t="n">
-        <v>9.738666666666663</v>
+        <v>9.760333333333332</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C113" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="C113" t="n">
-        <v>8.77</v>
-      </c>
       <c r="D113" t="n">
-        <v>8.859999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>8.75</v>
+        <v>8.69</v>
       </c>
       <c r="F113" t="n">
-        <v>979716.6282</v>
+        <v>2352194.6862</v>
       </c>
       <c r="G113" t="n">
-        <v>9.719499999999998</v>
+        <v>9.738666666666663</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C114" t="n">
         <v>8.77</v>
       </c>
-      <c r="C114" t="n">
-        <v>8.69</v>
-      </c>
       <c r="D114" t="n">
-        <v>8.82</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>8.69</v>
+        <v>8.75</v>
       </c>
       <c r="F114" t="n">
-        <v>1062756.5178</v>
+        <v>979716.6282</v>
       </c>
       <c r="G114" t="n">
-        <v>9.700833333333332</v>
+        <v>9.719499999999998</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.75</v>
+        <v>8.77</v>
       </c>
       <c r="C115" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D115" t="n">
         <v>8.82</v>
       </c>
-      <c r="D115" t="n">
-        <v>8.9</v>
-      </c>
       <c r="E115" t="n">
-        <v>8.699999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="F115" t="n">
-        <v>1672683.2135</v>
+        <v>1062756.5178</v>
       </c>
       <c r="G115" t="n">
-        <v>9.682666666666668</v>
+        <v>9.700833333333332</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D116" t="n">
         <v>8.9</v>
       </c>
-      <c r="C116" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D116" t="n">
-        <v>8.91</v>
-      </c>
       <c r="E116" t="n">
-        <v>8.73</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>795956.9815</v>
+        <v>1672683.2135</v>
       </c>
       <c r="G116" t="n">
-        <v>9.664666666666667</v>
+        <v>9.682666666666668</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.869999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="C117" t="n">
-        <v>8.98</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>8.91</v>
       </c>
       <c r="E117" t="n">
-        <v>8.83</v>
+        <v>8.73</v>
       </c>
       <c r="F117" t="n">
-        <v>943086.0889</v>
+        <v>795956.9815</v>
       </c>
       <c r="G117" t="n">
-        <v>9.648333333333333</v>
+        <v>9.664666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C118" t="n">
         <v>8.98</v>
       </c>
-      <c r="C118" t="n">
-        <v>9.09</v>
-      </c>
       <c r="D118" t="n">
-        <v>9.109999999999999</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>8.949999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="F118" t="n">
-        <v>1911990.770546871</v>
+        <v>943086.0889</v>
       </c>
       <c r="G118" t="n">
-        <v>9.636500000000002</v>
+        <v>9.648333333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.01</v>
+        <v>8.98</v>
       </c>
       <c r="C119" t="n">
         <v>9.09</v>
       </c>
       <c r="D119" t="n">
-        <v>9.119999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>1142806.411553128</v>
+        <v>1911990.770546871</v>
       </c>
       <c r="G119" t="n">
-        <v>9.625000000000002</v>
+        <v>9.636500000000002</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C120" t="n">
         <v>9.09</v>
       </c>
-      <c r="C120" t="n">
-        <v>9</v>
-      </c>
       <c r="D120" t="n">
-        <v>9.09</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>8.98</v>
+        <v>9.01</v>
       </c>
       <c r="F120" t="n">
-        <v>1746646.1814</v>
+        <v>1142806.411553128</v>
       </c>
       <c r="G120" t="n">
-        <v>9.612333333333336</v>
+        <v>9.625000000000002</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C121" t="n">
         <v>9</v>
       </c>
-      <c r="C121" t="n">
-        <v>8.92</v>
-      </c>
       <c r="D121" t="n">
-        <v>9</v>
+        <v>9.09</v>
       </c>
       <c r="E121" t="n">
-        <v>8.84</v>
+        <v>8.98</v>
       </c>
       <c r="F121" t="n">
-        <v>1827706.1624</v>
+        <v>1746646.1814</v>
       </c>
       <c r="G121" t="n">
-        <v>9.596833333333334</v>
+        <v>9.612333333333336</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>9</v>
+      </c>
+      <c r="C122" t="n">
         <v>8.92</v>
       </c>
-      <c r="C122" t="n">
-        <v>8.869999999999999</v>
-      </c>
       <c r="D122" t="n">
-        <v>8.92</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="F122" t="n">
-        <v>1174906.683</v>
+        <v>1827706.1624</v>
       </c>
       <c r="G122" t="n">
-        <v>9.579666666666668</v>
+        <v>9.596833333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C123" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C123" t="n">
-        <v>8.960000000000001</v>
-      </c>
       <c r="D123" t="n">
-        <v>8.960000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="E123" t="n">
-        <v>8.800000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="F123" t="n">
-        <v>19030870.92628571</v>
+        <v>1174906.683</v>
       </c>
       <c r="G123" t="n">
-        <v>9.563333333333334</v>
+        <v>9.579666666666668</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>8.869999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>8.890000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>8.949999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>8.869999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>43524186.718</v>
+        <v>19030870.92628571</v>
       </c>
       <c r="G124" t="n">
-        <v>9.541500000000001</v>
+        <v>9.563333333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>8.869999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>8.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E125" t="n">
         <v>8.869999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>153889251.3019</v>
+        <v>43524186.718</v>
       </c>
       <c r="G125" t="n">
-        <v>9.525166666666667</v>
+        <v>9.541500000000001</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.890000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>8.890000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D126" t="n">
-        <v>8.93</v>
+        <v>8.9</v>
       </c>
       <c r="E126" t="n">
         <v>8.869999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>109986897.5702</v>
+        <v>153889251.3019</v>
       </c>
       <c r="G126" t="n">
-        <v>9.507333333333332</v>
+        <v>9.525166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>8.890000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>8.880000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D127" t="n">
         <v>8.93</v>
       </c>
       <c r="E127" t="n">
-        <v>8.85</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>77373074.19329999</v>
+        <v>109986897.5702</v>
       </c>
       <c r="G127" t="n">
-        <v>9.490333333333332</v>
+        <v>9.507333333333332</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,25 +4067,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.869999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>8.859999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>8.869999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="E128" t="n">
-        <v>8.779999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="F128" t="n">
-        <v>116617880.5436</v>
+        <v>77373074.19329999</v>
       </c>
       <c r="G128" t="n">
-        <v>9.472666666666667</v>
+        <v>9.490333333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C129" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="C129" t="n">
-        <v>8.85</v>
-      </c>
       <c r="D129" t="n">
-        <v>8.859999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>8.800000000000001</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>148801650</v>
+        <v>116617880.5436</v>
       </c>
       <c r="G129" t="n">
-        <v>9.450166666666666</v>
+        <v>9.472666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,25 +4125,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C130" t="n">
         <v>8.85</v>
       </c>
-      <c r="C130" t="n">
-        <v>8.869999999999999</v>
-      </c>
       <c r="D130" t="n">
-        <v>8.869999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>8.82</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>30141424.6055</v>
+        <v>148801650</v>
       </c>
       <c r="G130" t="n">
-        <v>9.429666666666666</v>
+        <v>9.450166666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3765,22 +4157,25 @@
         <v>8.85</v>
       </c>
       <c r="C131" t="n">
-        <v>8.85</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D131" t="n">
         <v>8.869999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>8.84</v>
+        <v>8.82</v>
       </c>
       <c r="F131" t="n">
-        <v>124720756.0081</v>
+        <v>30141424.6055</v>
       </c>
       <c r="G131" t="n">
-        <v>9.412000000000001</v>
+        <v>9.429666666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3791,21 +4186,24 @@
         <v>8.85</v>
       </c>
       <c r="C132" t="n">
-        <v>8.880000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="D132" t="n">
-        <v>8.880000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="F132" t="n">
-        <v>146706111.4443327</v>
+        <v>124720756.0081</v>
       </c>
       <c r="G132" t="n">
-        <v>9.394166666666667</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,544 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C133" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="C133" t="n">
-        <v>8.890000000000001</v>
-      </c>
       <c r="D133" t="n">
-        <v>8.890000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>8.869999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="F133" t="n">
-        <v>52417926.0242</v>
+        <v>146706111.4443327</v>
       </c>
       <c r="G133" t="n">
-        <v>9.375666666666666</v>
+        <v>9.394166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>18551927.3088</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9.355333333333332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1140163.2834</v>
-      </c>
-      <c r="G135" t="n">
-        <v>9.335833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C136" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D136" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E136" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F136" t="n">
-        <v>16758508.611</v>
-      </c>
-      <c r="G136" t="n">
-        <v>9.314833333333331</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C137" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E137" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F137" t="n">
-        <v>46452635.868</v>
-      </c>
-      <c r="G137" t="n">
-        <v>9.292499999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C138" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1388788.3778</v>
-      </c>
-      <c r="G138" t="n">
-        <v>9.273999999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4284803.0762</v>
-      </c>
-      <c r="G139" t="n">
-        <v>9.258499999999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6633341.665005112</v>
-      </c>
-      <c r="G140" t="n">
-        <v>9.249499999999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2413117.4231</v>
-      </c>
-      <c r="G141" t="n">
-        <v>9.238999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3569162.0238</v>
-      </c>
-      <c r="G142" t="n">
-        <v>9.228499999999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>548436.374</v>
-      </c>
-      <c r="G143" t="n">
-        <v>9.218499999999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F144" t="n">
-        <v>177260.4990485405</v>
-      </c>
-      <c r="G144" t="n">
-        <v>9.205999999999998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>124938.6374469055</v>
-      </c>
-      <c r="G145" t="n">
-        <v>9.196166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>900513.4519</v>
-      </c>
-      <c r="G146" t="n">
-        <v>9.183166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>638894.3257</v>
-      </c>
-      <c r="G147" t="n">
-        <v>9.170500000000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>66242.43700000001</v>
-      </c>
-      <c r="G148" t="n">
-        <v>9.157500000000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F149" t="n">
-        <v>552726.2239</v>
-      </c>
-      <c r="G149" t="n">
-        <v>9.147333333333334</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F150" t="n">
-        <v>191589.2021</v>
-      </c>
-      <c r="G150" t="n">
-        <v>9.137</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>300640.2206</v>
-      </c>
-      <c r="G151" t="n">
-        <v>9.125666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F152" t="n">
-        <v>644684.0310622951</v>
-      </c>
-      <c r="G152" t="n">
-        <v>9.113</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>555299.7458</v>
-      </c>
-      <c r="G153" t="n">
-        <v>9.101499999999998</v>
-      </c>
-      <c r="H153" t="n">
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
